--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3052.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3052.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2174320893172574</v>
+        <v>1.101656556129456</v>
       </c>
       <c r="B1">
-        <v>0.4128900674275179</v>
+        <v>4.115572929382324</v>
       </c>
       <c r="C1">
-        <v>2.602903791126716</v>
+        <v>6.046109199523926</v>
       </c>
       <c r="D1">
-        <v>4.623835999538591</v>
+        <v>1.486738324165344</v>
       </c>
       <c r="E1">
-        <v>3.522121882879075</v>
+        <v>0.8377549052238464</v>
       </c>
     </row>
   </sheetData>
